--- a/examples/1_optimizations_of_ref_vehicle/liftcruise/validation.xlsx
+++ b/examples/1_optimizations_of_ref_vehicle/liftcruise/validation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/examples/1_optimizations_of_ref_vehicle/liftcruise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E6B846-E373-FB40-8D43-23F9313BDB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F315492-A3BE-724A-9106-C96E4C28E475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" activeTab="3" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="15320" yWindow="740" windowWidth="14920" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="liftcruise_ref" sheetId="12" r:id="rId1"/>
@@ -775,13 +775,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -790,8 +784,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10206,8 +10206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF2CC91-5E9A-2041-A25C-AEB7F568B05D}">
   <dimension ref="B1:AO81"/>
   <sheetViews>
-    <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10248,11 +10248,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="15" t="s">
@@ -10263,26 +10263,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="F3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="J3" s="28" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="J3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="N3" s="28" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="U3" s="7" t="s">
         <v>42</v>
       </c>
@@ -10520,14 +10520,14 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>-952.93050976720406</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
         <v>1825.0883884849754</v>
       </c>
       <c r="AK5" s="2">
@@ -10903,11 +10903,11 @@
       <c r="H9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
       <c r="N9" s="6" t="s">
         <v>114</v>
       </c>
@@ -11221,11 +11221,11 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="N12" s="6" t="s">
         <v>138</v>
       </c>
@@ -11522,11 +11522,11 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="F15" s="6" t="s">
         <v>143</v>
       </c>
@@ -11877,11 +11877,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -12063,11 +12063,11 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="F20" s="23" t="s">
         <v>128</v>
       </c>
@@ -12284,11 +12284,11 @@
       <c r="C22" s="16">
         <v>2</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="J22" s="13" t="s">
         <v>144</v>
       </c>
@@ -12823,11 +12823,11 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="F27" t="s">
         <v>93</v>
       </c>
@@ -13261,11 +13261,11 @@
       <c r="C31" s="16">
         <v>0.75</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
       <c r="J31" s="6" t="s">
         <v>56</v>
       </c>
@@ -13538,11 +13538,11 @@
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="J34" s="6" t="s">
         <v>58</v>
       </c>
@@ -13846,11 +13846,11 @@
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="J39" s="9" t="s">
         <v>60</v>
       </c>
@@ -13950,11 +13950,11 @@
         <f>IF(C40="wheeled",0.0325,0.014)</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J41" s="28" t="s">
+      <c r="J41" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -14152,11 +14152,11 @@
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="J45" s="19" t="s">
         <v>70</v>
       </c>
@@ -14199,11 +14199,11 @@
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
@@ -14238,11 +14238,11 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
@@ -14288,11 +14288,11 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
@@ -14322,11 +14322,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -14373,11 +14373,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -14424,11 +14424,11 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -14475,12 +14475,16 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="N18:P18"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="F22:H22"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B39:D39"/>
@@ -14488,16 +14492,12 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="F31:H31"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="N18:P18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="FALSE">
@@ -14529,7 +14529,7 @@
   <dimension ref="B1:AO81"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14570,11 +14570,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="15" t="s">
@@ -14585,26 +14585,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="F3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="J3" s="28" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="J3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="N3" s="28" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="U3" s="7" t="s">
         <v>42</v>
       </c>
@@ -14842,14 +14842,14 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>-863.31750532040314</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
         <v>2433.369449337767</v>
       </c>
       <c r="AK5" s="2">
@@ -15225,11 +15225,11 @@
       <c r="H9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
       <c r="N9" s="6" t="s">
         <v>114</v>
       </c>
@@ -15543,11 +15543,11 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="N12" s="6" t="s">
         <v>138</v>
       </c>
@@ -15844,11 +15844,11 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="F15" s="6" t="s">
         <v>143</v>
       </c>
@@ -16199,11 +16199,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -16385,11 +16385,11 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="F20" s="23" t="s">
         <v>128</v>
       </c>
@@ -16606,11 +16606,11 @@
       <c r="C22" s="16">
         <v>2</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="J22" s="13" t="s">
         <v>144</v>
       </c>
@@ -17145,11 +17145,11 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="F27" t="s">
         <v>93</v>
       </c>
@@ -17583,11 +17583,11 @@
       <c r="C31" s="16">
         <v>0.75</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
       <c r="J31" s="6" t="s">
         <v>56</v>
       </c>
@@ -17860,11 +17860,11 @@
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="J34" s="6" t="s">
         <v>58</v>
       </c>
@@ -18168,11 +18168,11 @@
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="J39" s="9" t="s">
         <v>60</v>
       </c>
@@ -18272,11 +18272,11 @@
         <f>IF(C40="wheeled",0.0325,0.014)</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J41" s="28" t="s">
+      <c r="J41" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -18474,11 +18474,11 @@
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="J45" s="19" t="s">
         <v>70</v>
       </c>
@@ -18521,11 +18521,11 @@
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
@@ -18560,11 +18560,11 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
@@ -18610,11 +18610,11 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
@@ -18644,11 +18644,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -18695,11 +18695,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -18746,11 +18746,11 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -18797,11 +18797,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B76:D76"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="F12:H12"/>
@@ -18815,11 +18815,11 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="17" priority="1" operator="containsText" text="FALSE">
@@ -18851,7 +18851,7 @@
   <dimension ref="B1:AO81"/>
   <sheetViews>
     <sheetView zoomScale="88" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18892,11 +18892,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="15" t="s">
@@ -18907,26 +18907,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="F3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="J3" s="28" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="J3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="N3" s="28" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="U3" s="7" t="s">
         <v>42</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
         <v>-953.39204387604559</v>
       </c>
       <c r="AI5" s="3">
@@ -19179,7 +19179,7 @@
         <v>5250</v>
       </c>
       <c r="AL5" s="2">
-        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AL5:AL44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>1080.1971985535988</v>
       </c>
       <c r="AM5" s="2">
@@ -19547,11 +19547,11 @@
       <c r="H9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
       <c r="N9" s="6" t="s">
         <v>114</v>
       </c>
@@ -19865,11 +19865,11 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="N12" s="6" t="s">
         <v>138</v>
       </c>
@@ -20166,11 +20166,11 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="F15" s="6" t="s">
         <v>143</v>
       </c>
@@ -20521,11 +20521,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -20707,11 +20707,11 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="F20" s="23" t="s">
         <v>128</v>
       </c>
@@ -20928,11 +20928,11 @@
       <c r="C22" s="16">
         <v>2</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="J22" s="13" t="s">
         <v>144</v>
       </c>
@@ -21467,11 +21467,11 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="F27" t="s">
         <v>93</v>
       </c>
@@ -21905,11 +21905,11 @@
       <c r="C31" s="16">
         <v>0.75</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
       <c r="J31" s="6" t="s">
         <v>56</v>
       </c>
@@ -22182,11 +22182,11 @@
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="J34" s="6" t="s">
         <v>58</v>
       </c>
@@ -22490,11 +22490,11 @@
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="J39" s="9" t="s">
         <v>60</v>
       </c>
@@ -22594,11 +22594,11 @@
         <f>IF(C40="wheeled",0.0325,0.014)</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J41" s="28" t="s">
+      <c r="J41" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -22796,11 +22796,11 @@
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="J45" s="19" t="s">
         <v>70</v>
       </c>
@@ -22843,11 +22843,11 @@
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
@@ -22882,11 +22882,11 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
@@ -22932,11 +22932,11 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
@@ -22966,11 +22966,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -23017,11 +23017,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -23068,11 +23068,11 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -23119,11 +23119,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B76:D76"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="F12:H12"/>
@@ -23137,11 +23137,11 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -23172,8 +23172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D02E576-0519-3F4C-BF49-FEE85D4E545A}">
   <dimension ref="B1:AO81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView zoomScale="88" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23214,11 +23214,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
     </row>
     <row r="2" spans="2:41" x14ac:dyDescent="0.2">
       <c r="U2" s="15" t="s">
@@ -23229,26 +23229,26 @@
       </c>
     </row>
     <row r="3" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="F3" s="30" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="F3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="J3" s="28" t="s">
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="J3" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="N3" s="28" t="s">
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="N3" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
       <c r="U3" s="7" t="s">
         <v>42</v>
       </c>
@@ -23486,14 +23486,14 @@
         <v>500</v>
       </c>
       <c r="AH5" s="2">
-        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5"/>
+        <f t="dataTable" ref="AH5:AH44" dt2D="0" dtr="0" r1="C5" ca="1"/>
         <v>-1300.3447846479478</v>
       </c>
       <c r="AI5" s="3">
         <v>10000</v>
       </c>
       <c r="AJ5" s="2">
-        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5" ca="1"/>
+        <f t="dataTable" ref="AJ5:AJ44" dt2D="0" dtr="0" r1="C5"/>
         <v>119.23598678295275</v>
       </c>
       <c r="AK5" s="2">
@@ -23869,11 +23869,11 @@
       <c r="H9" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J9" s="28" t="s">
+      <c r="J9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
       <c r="N9" s="6" t="s">
         <v>114</v>
       </c>
@@ -24187,11 +24187,11 @@
       <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="N12" s="6" t="s">
         <v>138</v>
       </c>
@@ -24488,11 +24488,11 @@
       </c>
     </row>
     <row r="15" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
       <c r="F15" s="6" t="s">
         <v>143</v>
       </c>
@@ -24843,11 +24843,11 @@
       <c r="L18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="N18" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
       <c r="U18" s="2">
         <v>14</v>
       </c>
@@ -25029,11 +25029,11 @@
       </c>
     </row>
     <row r="20" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
       <c r="F20" s="23" t="s">
         <v>128</v>
       </c>
@@ -25250,11 +25250,11 @@
       <c r="C22" s="16">
         <v>2</v>
       </c>
-      <c r="F22" s="28" t="s">
+      <c r="F22" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
       <c r="J22" s="13" t="s">
         <v>144</v>
       </c>
@@ -25789,11 +25789,11 @@
       </c>
     </row>
     <row r="27" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
       <c r="F27" t="s">
         <v>93</v>
       </c>
@@ -26227,11 +26227,11 @@
       <c r="C31" s="16">
         <v>0.75</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="28" t="s">
         <v>175</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
       <c r="J31" s="6" t="s">
         <v>56</v>
       </c>
@@ -26504,11 +26504,11 @@
       </c>
     </row>
     <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
       <c r="J34" s="6" t="s">
         <v>58</v>
       </c>
@@ -26812,11 +26812,11 @@
       </c>
     </row>
     <row r="39" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
       <c r="J39" s="9" t="s">
         <v>60</v>
       </c>
@@ -26916,11 +26916,11 @@
         <f>IF(C40="wheeled",0.0325,0.014)</f>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="J41" s="28" t="s">
+      <c r="J41" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
       <c r="AF41" s="2">
         <v>37</v>
       </c>
@@ -27118,11 +27118,11 @@
       </c>
     </row>
     <row r="45" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B45" s="28" t="s">
+      <c r="B45" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
       <c r="J45" s="19" t="s">
         <v>70</v>
       </c>
@@ -27165,11 +27165,11 @@
       </c>
     </row>
     <row r="48" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B49" s="6" t="s">
@@ -27204,11 +27204,11 @@
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="28" t="s">
+      <c r="B53" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="6" t="s">
@@ -27254,11 +27254,11 @@
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B60" s="6" t="s">
@@ -27288,11 +27288,11 @@
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="29"/>
-      <c r="D64" s="29"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B65" s="6" t="s">
@@ -27339,11 +27339,11 @@
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B70" s="28" t="s">
+      <c r="B70" s="27" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="29"/>
-      <c r="D70" s="29"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B71" s="6" t="s">
@@ -27390,11 +27390,11 @@
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B76" s="28" t="s">
+      <c r="B76" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="27"/>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B77" s="6" t="s">
@@ -27441,11 +27441,11 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B76:D76"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="F12:H12"/>
@@ -27459,11 +27459,11 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="J41:L41"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <conditionalFormatting sqref="K31">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
